--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9675" activeTab="2"/>
+    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Status Test Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Poll Test Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Add Edit Category Test Data" sheetId="6" r:id="rId4"/>
+    <sheet name="Event Test Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Announcement Test Data" sheetId="8" r:id="rId6"/>
+    <sheet name="Search Molly Test Data" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -60,18 +64,39 @@
     <t>Wog123456789</t>
   </si>
   <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
     <t>What are you workin on?</t>
   </si>
   <si>
     <t>Tag a Person or Group</t>
   </si>
   <si>
+    <t>Tag a Person or Group 2</t>
+  </si>
+  <si>
+    <t>Add a Hashtag</t>
+  </si>
+  <si>
     <t>Home_0001</t>
   </si>
   <si>
     <t>Test Appium</t>
   </si>
   <si>
+    <t>Home_0002</t>
+  </si>
+  <si>
+    <t>Home_0003</t>
+  </si>
+  <si>
+    <t>Home_0004</t>
+  </si>
+  <si>
+    <t>Home_0005</t>
+  </si>
+  <si>
     <t>Home_0006</t>
   </si>
   <si>
@@ -81,7 +106,100 @@
     <t>Kel Ching</t>
   </si>
   <si>
-    <t>Add a hashtag</t>
+    <t>Home_0007</t>
+  </si>
+  <si>
+    <t>Test data with multiple tag person or group</t>
+  </si>
+  <si>
+    <t>Mark Mark</t>
+  </si>
+  <si>
+    <t>Home_0008</t>
+  </si>
+  <si>
+    <t>Test data with tag person and hashtag.</t>
+  </si>
+  <si>
+    <t>Esteve Jobs</t>
+  </si>
+  <si>
+    <t>TestWithAppium</t>
+  </si>
+  <si>
+    <t>What's this poll about?</t>
+  </si>
+  <si>
+    <t>Add an Option 1</t>
+  </si>
+  <si>
+    <t>Add an Option 2</t>
+  </si>
+  <si>
+    <t>Add an Option 3</t>
+  </si>
+  <si>
+    <t>Add an Option 4</t>
+  </si>
+  <si>
+    <t>Home_0012</t>
+  </si>
+  <si>
+    <t>Test Poll</t>
+  </si>
+  <si>
+    <t>Test Choice 1</t>
+  </si>
+  <si>
+    <t>Test Choice 2</t>
+  </si>
+  <si>
+    <t>Home_0013</t>
+  </si>
+  <si>
+    <t>Test poll more option.</t>
+  </si>
+  <si>
+    <t>Test Choice 3</t>
+  </si>
+  <si>
+    <t>Test Choice 4</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Select Color</t>
+  </si>
+  <si>
+    <t>Home_0014</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>4986e7</t>
+  </si>
+  <si>
+    <t>This announcement is about</t>
+  </si>
+  <si>
+    <t>Type your announcement details</t>
+  </si>
+  <si>
+    <t>Home_0020</t>
+  </si>
+  <si>
+    <t>ericadisto@gmail.com</t>
+  </si>
+  <si>
+    <t>Working Holiday</t>
+  </si>
+  <si>
+    <t>May 1, 2020 Labor Day</t>
+  </si>
+  <si>
+    <t>Search Molly</t>
   </si>
 </sst>
 </file>
@@ -89,12 +207,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +237,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -134,15 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +294,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -164,99 +347,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +401,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,19 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,127 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,30 +592,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,17 +610,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,11 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,171 +677,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,13 +1213,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1074,7 +1227,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1085,13 +1238,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1107,7 +1260,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1118,7 +1271,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1140,73 +1293,293 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="41.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="21.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="16.8571428571429" customWidth="1"/>
+    <col min="6" max="7" width="22.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="29.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="20.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="16.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1"/>
+      <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1218,83 +1591,180 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5714285714286" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="26.4285714285714" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.7142857142857" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="25.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="28.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="32.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ericadisto@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Data" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="Event Test Data" sheetId="7" r:id="rId5"/>
     <sheet name="Announcement Test Data" sheetId="8" r:id="rId6"/>
     <sheet name="Search Molly Test Data" sheetId="5" r:id="rId7"/>
+    <sheet name="Personal Information Test Data" sheetId="9" r:id="rId8"/>
+    <sheet name="Contact Information Test Data" sheetId="10" r:id="rId9"/>
+    <sheet name="Educational Attainment TestData" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -200,6 +203,129 @@
   </si>
   <si>
     <t>Search Molly</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name </t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Profile_0029</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Dela Cruz</t>
+  </si>
+  <si>
+    <t>May 1, 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Dev ,Networking ,TechSupport  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All about IT ,Sports ,Movies </t>
+  </si>
+  <si>
+    <t>Complete Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Contact Person Name</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Profile_0030</t>
+  </si>
+  <si>
+    <t>00123 Ortigas Pasig City</t>
+  </si>
+  <si>
+    <t>09123456688</t>
+  </si>
+  <si>
+    <t>09123456789</t>
+  </si>
+  <si>
+    <t>Juan Dela Cruz</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>09123789456</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>From Year</t>
+  </si>
+  <si>
+    <t>To Year</t>
+  </si>
+  <si>
+    <t>Profile_0031</t>
+  </si>
+  <si>
+    <t>STI College Ortigas-Cainta</t>
+  </si>
+  <si>
+    <t>Bachelor of Science in Information Technology</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Profile_0032</t>
+  </si>
+  <si>
+    <t>FEU Manila</t>
+  </si>
+  <si>
+    <t>Masteral in Information Technology</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -207,10 +333,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -238,9 +364,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,11 +378,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,6 +404,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -287,23 +443,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +482,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,66 +517,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -401,187 +527,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +718,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,54 +741,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +766,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -695,15 +821,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,136 +839,158 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -853,7 +1001,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -861,25 +1009,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,13 +1366,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1227,7 +1380,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1238,13 +1391,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1260,7 +1413,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1271,7 +1424,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1286,6 +1439,107 @@
     <hyperlink ref="B7" r:id="rId2" display="wog.stanleyfuji@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.2857142857143" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1310,163 +1564,163 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" customFormat="1" spans="1:7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1508,76 +1762,76 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="20" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1602,51 +1856,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.4285714285714" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.7142857142857" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.4285714285714" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="5"/>
+    <col min="1" max="1" width="26.4285714285714" style="15" customWidth="1"/>
+    <col min="2" max="2" width="24.7142857142857" style="15" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" style="15" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1678,7 +1932,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1690,36 +1944,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1750,16 +2004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1767,4 +2021,190 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="27.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="23.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="33.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="30.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="24" style="6" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" style="6" customWidth="1"/>
+    <col min="3" max="4" width="31.5714285714286" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26.8571428571429" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.1428571428571" style="6" customWidth="1"/>
+    <col min="8" max="8" width="26.5714285714286" style="6" customWidth="1"/>
+    <col min="9" max="9" width="33" style="6" customWidth="1"/>
+    <col min="10" max="10" width="32.7142857142857" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="19515" windowHeight="9375" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Data" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,25 @@
     <sheet name="Event Test Data" sheetId="7" r:id="rId5"/>
     <sheet name="Announcement Test Data" sheetId="8" r:id="rId6"/>
     <sheet name="Search Molly Test Data" sheetId="5" r:id="rId7"/>
-    <sheet name="Personal Information Test Data" sheetId="9" r:id="rId8"/>
-    <sheet name="Contact Information Test Data" sheetId="10" r:id="rId9"/>
-    <sheet name="Educational Attainment TestData" sheetId="11" r:id="rId10"/>
+    <sheet name="ChangeProfile Picture Test Data" sheetId="20" r:id="rId8"/>
+    <sheet name="Personal Information Test Data" sheetId="9" r:id="rId9"/>
+    <sheet name="Contact Information Test Data" sheetId="10" r:id="rId10"/>
+    <sheet name="Educational Attainment TestData" sheetId="11" r:id="rId11"/>
+    <sheet name="Professional Info Test Data" sheetId="12" r:id="rId12"/>
+    <sheet name="Filter Files Test Data" sheetId="13" r:id="rId13"/>
+    <sheet name="Search Files Test Data" sheetId="14" r:id="rId14"/>
+    <sheet name="Rename File Test Data" sheetId="15" r:id="rId15"/>
+    <sheet name="Download File Test Data" sheetId="16" r:id="rId16"/>
+    <sheet name="Share File Via Link Test Data" sheetId="17" r:id="rId17"/>
+    <sheet name="Share File Via Email Test Data" sheetId="18" r:id="rId18"/>
+    <sheet name="Delete File Test Data" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -130,6 +139,30 @@
     <t>TestWithAppium</t>
   </si>
   <si>
+    <t>Profile_0002</t>
+  </si>
+  <si>
+    <t>Far far away, behind the word mountains, far from the countries Vokalia and Consonantia, there live the blind texts.</t>
+  </si>
+  <si>
+    <t>Profile_0003</t>
+  </si>
+  <si>
+    <t>Profile_0004</t>
+  </si>
+  <si>
+    <t>Profile_0005</t>
+  </si>
+  <si>
+    <t>Profile_0006</t>
+  </si>
+  <si>
+    <t>Profile_0007</t>
+  </si>
+  <si>
+    <t>A wonderful serenity has taken possession of my entire soul, like these sweet mornings of spring which I enjoy with my whole heart. I am alone, and feel the charm of existence in this spot, which was created for the bliss of souls like mine.</t>
+  </si>
+  <si>
     <t>What's this poll about?</t>
   </si>
   <si>
@@ -148,25 +181,61 @@
     <t>Home_0012</t>
   </si>
   <si>
-    <t>Test Poll</t>
-  </si>
-  <si>
-    <t>Test Choice 1</t>
-  </si>
-  <si>
-    <t>Test Choice 2</t>
+    <t>Who will people in 2030 trust more with their babies: robots or human baby-sitters?</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Human baby-sitters</t>
   </si>
   <si>
     <t>Home_0013</t>
   </si>
   <si>
-    <t>Test poll more option.</t>
-  </si>
-  <si>
-    <t>Test Choice 3</t>
-  </si>
-  <si>
-    <t>Test Choice 4</t>
+    <t>What is your current role?</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>QA Tester</t>
+  </si>
+  <si>
+    <t>Web Designer</t>
+  </si>
+  <si>
+    <t>Business Development</t>
+  </si>
+  <si>
+    <t>Profile_0013</t>
+  </si>
+  <si>
+    <t>What is your age?</t>
+  </si>
+  <si>
+    <t>18 -24 years old</t>
+  </si>
+  <si>
+    <t>25 - 35 years old</t>
+  </si>
+  <si>
+    <t>Profile_0014</t>
+  </si>
+  <si>
+    <t>Have you used this app before?</t>
+  </si>
+  <si>
+    <t>Yes, I am a power user</t>
+  </si>
+  <si>
+    <t>Yes, but only a little</t>
+  </si>
+  <si>
+    <t>I’ve only seen others use it</t>
+  </si>
+  <si>
+    <t>I’ve never used or seen the application</t>
   </si>
   <si>
     <t>Category Name</t>
@@ -184,6 +253,12 @@
     <t>4986e7</t>
   </si>
   <si>
+    <t>Home_0015</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
     <t>This announcement is about</t>
   </si>
   <si>
@@ -205,6 +280,15 @@
     <t>Search Molly</t>
   </si>
   <si>
+    <t>Home_0024</t>
+  </si>
+  <si>
+    <t>Home_0025</t>
+  </si>
+  <si>
+    <t>Profile_0001</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -226,7 +310,7 @@
     <t>Interests</t>
   </si>
   <si>
-    <t>Profile_0029</t>
+    <t>Profile_0030</t>
   </si>
   <si>
     <t>Mary</t>
@@ -238,6 +322,9 @@
     <t>Dela Cruz</t>
   </si>
   <si>
+    <t>Jr</t>
+  </si>
+  <si>
     <t>May 1, 1995</t>
   </si>
   <si>
@@ -268,7 +355,7 @@
     <t>Contact Number</t>
   </si>
   <si>
-    <t>Profile_0030</t>
+    <t>Profile_0031</t>
   </si>
   <si>
     <t>00123 Ortigas Pasig City</t>
@@ -295,13 +382,7 @@
     <t>Degree</t>
   </si>
   <si>
-    <t>From Year</t>
-  </si>
-  <si>
-    <t>To Year</t>
-  </si>
-  <si>
-    <t>Profile_0031</t>
+    <t>Profile_0032</t>
   </si>
   <si>
     <t>STI College Ortigas-Cainta</t>
@@ -310,13 +391,7 @@
     <t>Bachelor of Science in Information Technology</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>Profile_0032</t>
+    <t>Profile_0033</t>
   </si>
   <si>
     <t>FEU Manila</t>
@@ -325,7 +400,115 @@
     <t>Masteral in Information Technology</t>
   </si>
   <si>
-    <t>2019</t>
+    <t>Profile_0034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company </t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Work Accomplishments</t>
+  </si>
+  <si>
+    <t>Certificates Received</t>
+  </si>
+  <si>
+    <t>Professional Skills</t>
+  </si>
+  <si>
+    <t>Profile_0035</t>
+  </si>
+  <si>
+    <t>WOG</t>
+  </si>
+  <si>
+    <t>Research Department</t>
+  </si>
+  <si>
+    <t>QA Tester/Project Secretary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA </t>
+  </si>
+  <si>
+    <t>Manual Testing Training</t>
+  </si>
+  <si>
+    <t>Profile_0036</t>
+  </si>
+  <si>
+    <t>Web Outsourcing Gateway</t>
+  </si>
+  <si>
+    <t>QA Department</t>
+  </si>
+  <si>
+    <t>Testing web and mobile application</t>
+  </si>
+  <si>
+    <t>Manual and Automation Testing Training</t>
+  </si>
+  <si>
+    <t>Software tester, Automation skills</t>
+  </si>
+  <si>
+    <t>Profile_0037</t>
+  </si>
+  <si>
+    <t>Profile_0038</t>
+  </si>
+  <si>
+    <t>Profile_0039</t>
+  </si>
+  <si>
+    <t>Profile_0040</t>
+  </si>
+  <si>
+    <t>Profile_0041</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Profile_0042</t>
+  </si>
+  <si>
+    <t>Portable Document File Sample.pdf</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Profile_0043</t>
+  </si>
+  <si>
+    <t>Sample File</t>
+  </si>
+  <si>
+    <t>Profile_0044</t>
+  </si>
+  <si>
+    <t>Colleague Name or Group Name</t>
+  </si>
+  <si>
+    <t>Profile_0045</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Profile_0046</t>
+  </si>
+  <si>
+    <t>This file has been shared via email.</t>
+  </si>
+  <si>
+    <t>Profile_0047</t>
   </si>
 </sst>
 </file>
@@ -334,9 +517,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -363,6 +546,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -377,21 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,8 +587,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,9 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,6 +627,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,14 +655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -481,22 +670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +681,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,7 +710,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +740,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,25 +776,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,43 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,79 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +901,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,17 +957,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -795,15 +987,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -821,7 +1004,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -839,135 +1022,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -980,17 +1167,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1001,38 +1184,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,7 +1530,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1366,13 +1541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1380,7 +1555,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1391,13 +1566,13 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1413,7 +1588,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
@@ -1424,7 +1599,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1446,98 +1621,718 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.4285714285714" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="24" style="9" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" style="9" customWidth="1"/>
+    <col min="3" max="4" width="31.5714285714286" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.8571428571429" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.8571428571429" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.1428571428571" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26.5714285714286" style="9" customWidth="1"/>
+    <col min="9" max="9" width="33" style="9" customWidth="1"/>
+    <col min="10" max="10" width="32.7142857142857" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
+      <c r="D1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>100</v>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.8571428571429" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.5714285714286" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.7142857142857" style="5" customWidth="1"/>
+    <col min="5" max="5" width="44.4285714285714" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="23.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="25.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="34.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="33.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="37.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="38.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="40.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="31.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="24.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="23.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="41.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="26.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="40.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="35.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="28.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1547,10 +2342,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1564,165 +2359,245 @@
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" customFormat="1" spans="1:7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>34</v>
       </c>
+    </row>
+    <row r="10" ht="45" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="90" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1734,6 +2609,12 @@
     <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1743,102 +2624,162 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="29.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="38.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="26.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="20.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="16.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="2" ht="45" spans="1:8">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" ht="30" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" ht="30" spans="1:8">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1851,60 +2792,75 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.4285714285714" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.7142857142857" style="15" customWidth="1"/>
-    <col min="3" max="3" width="25.4285714285714" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="15"/>
+    <col min="1" max="1" width="26.4285714285714" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.7142857142857" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" style="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>49</v>
+      <c r="D1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
+      <c r="A2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="A4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1944,37 +2900,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>54</v>
+      <c r="D1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>58</v>
+      <c r="A2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1989,13 +2945,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
@@ -2004,20 +2960,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>59</v>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2026,10 +3014,57 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -2047,157 +3082,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>66</v>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="24" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="4" width="31.5714285714286" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26.8571428571429" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.8571428571429" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.1428571428571" style="6" customWidth="1"/>
-    <col min="8" max="8" width="26.5714285714286" style="6" customWidth="1"/>
-    <col min="9" max="9" width="33" style="6" customWidth="1"/>
-    <col min="10" max="10" width="32.7142857142857" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/excel/testdata.xlsx
+++ b/excel/testdata.xlsx
@@ -4,35 +4,37 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19515" windowHeight="9375" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="19545" windowHeight="9675" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Login Test Data" sheetId="1" r:id="rId1"/>
     <sheet name="Status Test Data" sheetId="3" r:id="rId2"/>
     <sheet name="Poll Test Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Add Edit Category Test Data" sheetId="6" r:id="rId4"/>
-    <sheet name="Event Test Data" sheetId="7" r:id="rId5"/>
+    <sheet name="Event Test Data" sheetId="7" r:id="rId4"/>
+    <sheet name="Add Edit Del Category Test Data" sheetId="6" r:id="rId5"/>
     <sheet name="Announcement Test Data" sheetId="8" r:id="rId6"/>
     <sheet name="Search Molly Test Data" sheetId="5" r:id="rId7"/>
-    <sheet name="ChangeProfile Picture Test Data" sheetId="20" r:id="rId8"/>
-    <sheet name="Personal Information Test Data" sheetId="9" r:id="rId9"/>
-    <sheet name="Contact Information Test Data" sheetId="10" r:id="rId10"/>
-    <sheet name="Educational Attainment TestData" sheetId="11" r:id="rId11"/>
-    <sheet name="Professional Info Test Data" sheetId="12" r:id="rId12"/>
-    <sheet name="Filter Files Test Data" sheetId="13" r:id="rId13"/>
-    <sheet name="Search Files Test Data" sheetId="14" r:id="rId14"/>
-    <sheet name="Rename File Test Data" sheetId="15" r:id="rId15"/>
-    <sheet name="Download File Test Data" sheetId="16" r:id="rId16"/>
-    <sheet name="Share File Via Link Test Data" sheetId="17" r:id="rId17"/>
-    <sheet name="Share File Via Email Test Data" sheetId="18" r:id="rId18"/>
-    <sheet name="Delete File Test Data" sheetId="19" r:id="rId19"/>
+    <sheet name="Like, Delete, etc. Test Data" sheetId="21" r:id="rId8"/>
+    <sheet name="Comment Test Data" sheetId="22" r:id="rId9"/>
+    <sheet name="ChangeProfile Picture Test Data" sheetId="20" r:id="rId10"/>
+    <sheet name="Personal Information Test Data" sheetId="9" r:id="rId11"/>
+    <sheet name="Contact Information Test Data" sheetId="10" r:id="rId12"/>
+    <sheet name="Educational Attainment TestData" sheetId="11" r:id="rId13"/>
+    <sheet name="Professional Info Test Data" sheetId="12" r:id="rId14"/>
+    <sheet name="Filter Files Test Data" sheetId="13" r:id="rId15"/>
+    <sheet name="Search Files Test Data" sheetId="14" r:id="rId16"/>
+    <sheet name="Rename File Test Data" sheetId="15" r:id="rId17"/>
+    <sheet name="Download File Test Data" sheetId="16" r:id="rId18"/>
+    <sheet name="Share File Via Link Test Data" sheetId="17" r:id="rId19"/>
+    <sheet name="Share File Via Email Test Data" sheetId="18" r:id="rId20"/>
+    <sheet name="Delete File Test Data" sheetId="19" r:id="rId21"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="236">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -139,6 +141,19 @@
     <t>TestWithAppium</t>
   </si>
   <si>
+    <t>Home_0044</t>
+  </si>
+  <si>
+    <t>Home_0045</t>
+  </si>
+  <si>
+    <t>Home_0021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem Ipsum is simply dummy text of the printing and typesetting industry. 
+</t>
+  </si>
+  <si>
     <t>Profile_0002</t>
   </si>
   <si>
@@ -208,6 +223,48 @@
     <t>Business Development</t>
   </si>
   <si>
+    <t>Home_0022</t>
+  </si>
+  <si>
+    <t>Which is your favorite classic Christmas song?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All I Want for Christmas is You</t>
+  </si>
+  <si>
+    <t>Driving Home for Christmas</t>
+  </si>
+  <si>
+    <t>Jingle Bell Rock</t>
+  </si>
+  <si>
+    <t>Last Christmas</t>
+  </si>
+  <si>
+    <t>Home_0046</t>
+  </si>
+  <si>
+    <t>Home_0047</t>
+  </si>
+  <si>
+    <t>All public institutions should use open-source software.</t>
+  </si>
+  <si>
+    <t>Home_0048</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Home_0049</t>
+  </si>
+  <si>
+    <t>Home_0050</t>
+  </si>
+  <si>
     <t>Profile_0013</t>
   </si>
   <si>
@@ -238,6 +295,90 @@
     <t>I’ve never used or seen the application</t>
   </si>
   <si>
+    <t>Say Something</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>About the event</t>
+  </si>
+  <si>
+    <t>Add a Place</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Home_0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th  year anniversary of WOG. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WOG Anniversary</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>January 15, 2020 12:00 am</t>
+  </si>
+  <si>
+    <t>January 15, 2020 11:59 pm</t>
+  </si>
+  <si>
+    <t>Home_0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn QA  </t>
+  </si>
+  <si>
+    <t>QA Event</t>
+  </si>
+  <si>
+    <t>Introduce new tools for software testing.</t>
+  </si>
+  <si>
+    <t>December 15, 2019 8:00 am</t>
+  </si>
+  <si>
+    <t>December 17, 2019 5:00 pm</t>
+  </si>
+  <si>
+    <t>Home_0023</t>
+  </si>
+  <si>
+    <t>WOG Team Building</t>
+  </si>
+  <si>
+    <t>Team Building 2019</t>
+  </si>
+  <si>
+    <t>Team building of Web Outsourcing Gateway Inc.</t>
+  </si>
+  <si>
+    <t>December 28, 2019 8:00 am</t>
+  </si>
+  <si>
+    <t>December 29, 2019 10:00 am</t>
+  </si>
+  <si>
+    <t>Home_0051</t>
+  </si>
+  <si>
+    <t>15th year anniversary</t>
+  </si>
+  <si>
+    <t>Home_0052</t>
+  </si>
+  <si>
+    <t>WOG Day</t>
+  </si>
+  <si>
     <t>Category Name</t>
   </si>
   <si>
@@ -259,6 +400,36 @@
     <t>Birthday</t>
   </si>
   <si>
+    <t>fa573c</t>
+  </si>
+  <si>
+    <t>Home_0016</t>
+  </si>
+  <si>
+    <t>Home_0056</t>
+  </si>
+  <si>
+    <t>Home_0057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4986e7 </t>
+  </si>
+  <si>
+    <t>Home_0058</t>
+  </si>
+  <si>
+    <t>Regular Event</t>
+  </si>
+  <si>
+    <t>Home_0059</t>
+  </si>
+  <si>
+    <t>Home_0060</t>
+  </si>
+  <si>
+    <t>ac725e</t>
+  </si>
+  <si>
     <t>This announcement is about</t>
   </si>
   <si>
@@ -277,6 +448,30 @@
     <t>May 1, 2020 Labor Day</t>
   </si>
   <si>
+    <t>Home_0041</t>
+  </si>
+  <si>
+    <t>Company Anniversary</t>
+  </si>
+  <si>
+    <t>Come and celebrate with us on the 25th anniversary of our opening! Doe Stationers have served the Springfield community since June, 1972, when John Doe first sold pens and envelopes out of the kiosk on Main Street. Since that time we have moved to a beautiful retail space in the Springfield Plaza building, and our business has become the most exclusive stationer's in the state.</t>
+  </si>
+  <si>
+    <t>Home_0061</t>
+  </si>
+  <si>
+    <t>Home_0062</t>
+  </si>
+  <si>
+    <t>Please plan to join us for a short session on how to use our new telephone system. A representative from the telephone company will be on hand in the conference room to explain the new features and to answer your questions on Friday, June 9, at 4:30 p.m. The session will be repeated at the same time Monday, June 12. We expect all employees to attend one of these sessions.</t>
+  </si>
+  <si>
+    <t>Home_0063</t>
+  </si>
+  <si>
+    <t>Employee Training Session</t>
+  </si>
+  <si>
     <t>Search Molly</t>
   </si>
   <si>
@@ -286,6 +481,42 @@
     <t>Home_0025</t>
   </si>
   <si>
+    <t>Home_0027</t>
+  </si>
+  <si>
+    <t>Home_0028</t>
+  </si>
+  <si>
+    <t>Home_0029</t>
+  </si>
+  <si>
+    <t>Home_0034</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Home_0030</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>Home_0031</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>Home_0032</t>
+  </si>
+  <si>
+    <t>The quick, brown fox jumps over a lazy dog.</t>
+  </si>
+  <si>
+    <t>Home_0033</t>
+  </si>
+  <si>
     <t>Profile_0001</t>
   </si>
   <si>
@@ -313,7 +544,7 @@
     <t>Profile_0030</t>
   </si>
   <si>
-    <t>Mary</t>
+    <t>Mary Mary</t>
   </si>
   <si>
     <t>Santos</t>
@@ -325,13 +556,13 @@
     <t>Jr</t>
   </si>
   <si>
-    <t>May 1, 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web Dev ,Networking ,TechSupport  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All about IT ,Sports ,Movies </t>
+    <t>May 20, 1998</t>
+  </si>
+  <si>
+    <t>Knowledgeable in Software Testing, Java Programming, Selenium, Appium, Jenkins, Git.</t>
+  </si>
+  <si>
+    <t>All about IT, Software Testing, Automation Testing, New Technologies.</t>
   </si>
   <si>
     <t>Complete Address</t>
@@ -472,10 +703,13 @@
     <t>Profile_0041</t>
   </si>
   <si>
+    <t>Profile_0042</t>
+  </si>
+  <si>
     <t>Search</t>
   </si>
   <si>
-    <t>Profile_0042</t>
+    <t>Profile_0043</t>
   </si>
   <si>
     <t>Portable Document File Sample.pdf</t>
@@ -484,31 +718,31 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Profile_0043</t>
+    <t>Profile_0044</t>
   </si>
   <si>
     <t>Sample File</t>
   </si>
   <si>
-    <t>Profile_0044</t>
+    <t>Profile_0045</t>
   </si>
   <si>
     <t>Colleague Name or Group Name</t>
   </si>
   <si>
-    <t>Profile_0045</t>
+    <t>Profile_0046</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Profile_0046</t>
+    <t>Profile_0047</t>
   </si>
   <si>
     <t>This file has been shared via email.</t>
   </si>
   <si>
-    <t>Profile_0047</t>
+    <t>Profile_0048</t>
   </si>
 </sst>
 </file>
@@ -516,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -580,30 +814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,13 +830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -633,54 +839,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,9 +861,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -716,7 +950,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +1052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,49 +1088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,19 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,79 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,22 +1138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +1187,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -972,47 +1225,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,134 +1256,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
@@ -1173,19 +1407,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,15 +1447,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1621,6 +1878,149 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="27.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="23.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="33.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="30.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" ht="45" spans="1:10">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1652,30 +2052,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1684,22 +2084,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>110</v>
+        <v>184</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>113</v>
+        <v>188</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1711,13 +2111,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1741,15 +2141,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>4</v>
@@ -1758,15 +2158,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>4</v>
@@ -1775,21 +2175,27 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1803,13 +2209,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1836,27 +2242,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1865,24 +2271,24 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1891,33 +2297,51 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1931,13 +2355,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1960,7 +2384,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1971,7 +2395,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1982,7 +2406,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -1993,7 +2417,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -2002,8 +2426,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="4"/>
@@ -2014,19 +2446,20 @@
     <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2050,12 +2483,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -2064,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2076,13 +2509,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2104,12 +2537,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -2118,7 +2551,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2130,13 +2563,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2159,7 +2592,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -2177,13 +2610,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2205,12 +2638,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2231,13 +2664,368 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="41.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="21.4285714285714" customWidth="1"/>
+    <col min="6" max="7" width="22.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" ht="45" spans="1:7">
+      <c r="A12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="45" spans="1:7">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" ht="90" spans="1:7">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="28"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2260,15 +3048,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2280,7 +3068,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2292,13 +3080,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2321,7 +3109,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -2339,298 +3127,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="41.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="21.4285714285714" customWidth="1"/>
-    <col min="6" max="7" width="22.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:7">
-      <c r="A7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="45" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" ht="90" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B12" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId1" display="marymary@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId1" display="marymary@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" customWidth="1"/>
@@ -2643,136 +3149,815 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="27" t="s">
         <v>47</v>
       </c>
+      <c r="E1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" ht="45" spans="1:8">
-      <c r="A2" s="22" t="s">
-        <v>48</v>
+      <c r="A2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" ht="30" spans="1:8">
+      <c r="A3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:8">
+      <c r="A4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" ht="30" spans="1:8">
+      <c r="A6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" ht="30" spans="1:8">
+      <c r="A8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" ht="30" spans="1:8">
+      <c r="A9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" ht="30" spans="1:8">
+      <c r="A11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="15.8571428571429" style="14" customWidth="1"/>
+    <col min="2" max="2" width="26.8571428571429" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.7142857142857" style="14" customWidth="1"/>
+    <col min="5" max="6" width="36.8571428571429" style="14" customWidth="1"/>
+    <col min="7" max="7" width="33.7142857142857" style="14" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.4285714285714" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" ht="30" spans="1:8">
-      <c r="A3" s="22" t="s">
-        <v>52</v>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
-        <v>58</v>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:9">
+      <c r="A4" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" ht="30" spans="1:8">
-      <c r="A5" s="15" t="s">
-        <v>62</v>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com" tooltip="mailto:marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26.4285714285714" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24.7142857142857" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" style="19" customWidth="1"/>
+    <col min="4" max="4" width="24.5714285714286" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.2857142857143" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="marymary@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="25.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.8571428571429" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.2857142857143" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" ht="180" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="180" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="ericadisto@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="ericadisto@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="ericadisto@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="ericadisto@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="ericadisto@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2786,76 +3971,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.4285714285714" style="17" customWidth="1"/>
-    <col min="2" max="2" width="24.7142857142857" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.4285714285714" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.5714285714286" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="26.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="27.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="D4" s="19"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2867,287 +4042,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="25.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="28.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="32.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="ericadisto@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="26.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="28.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.2857142857143" style="13" customWidth="1"/>
+    <col min="2" max="2" width="30.4285714285714" style="13" customWidth="1"/>
+    <col min="3" max="3" width="26.7142857142857" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
+      <c r="D1" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
+      <c r="A2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
+      <c r="A3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
     <hyperlink ref="B3" r:id="rId1" display="marymary@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="28.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="27.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="23.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="27.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="19.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="33.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="30.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="marymary@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="marymary@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
